--- a/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st05.xlsx
+++ b/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st05.xlsx
@@ -3884,7 +3884,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  It’s a trick I use against those “bugs” when I’m diggin’ out honey. Does good work on the thorny bastards in the ring too.
+    <t xml:space="preserve">[name="Beehunter"]  It’s a trick I use against those 'bugs' when I’m diggin’ out honey. Does good work on the thorny bastards in the ring too.
 </t>
   </si>
   <si>
@@ -4148,11 +4148,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  (Quietly) Then you make conversation when they open the door. When they say the word “glockenspiel,” you gotta immediately reply, “this one’s pretty good.” Then you’ll get the price and you’re golden.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  (Quietly) Don’t forget: “Glockennnspiel,” long in the middle, short at the end.
+    <t xml:space="preserve">[name="Beehunter"]  (Quietly) Then you make conversation when they open the door. When they say the word 'glockenspiel,' you gotta immediately reply, 'this one’s pretty good.' Then you’ll get the price and you’re golden.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  (Quietly) Don’t forget: 'Glockennnspiel,' long in the middle, short at the end.
 </t>
   </si>
   <si>
@@ -4712,7 +4712,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Student A"]  Just think about it, “General Leto.”
+    <t xml:space="preserve">[name="Student A"]  Just think about it, 'General Leto.'
 </t>
   </si>
   <si>
@@ -4972,7 +4972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  That’ll be a little more “stable” at least.
+    <t xml:space="preserve">[name="Rosalind"]  That’ll be a little more 'stable' at least.
 </t>
   </si>
   <si>
@@ -5480,7 +5480,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  Something like, “your suffering has only just begun” or “enjoy life” or whatever.
+    <t xml:space="preserve">[name="Leto"]  Something like, 'your suffering has only just begun' or 'enjoy life' or whatever.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st05.xlsx
+++ b/story/Activity Story 活动剧情/act10d5 Children of Ursus 乌萨斯的孩子们 ウルサスの子供たち/level_act10d5_st05.xlsx
@@ -3816,15 +3816,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  Really? Then why’d you block? Save the talk.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  Throw us in the ring and I’ll have you on the ground in round one.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  I’m not so sure.
+    <t xml:space="preserve">[name="Leto"]  Really? Then why'd you block? Save the talk.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  Throw us in the ring and I'll have you on the ground in round one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  I'm not so sure.
 </t>
   </si>
   <si>
@@ -3880,11 +3880,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  It’s just throwing your fists around a bit. What’s to learn?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  It’s a trick I use against those 'bugs' when I’m diggin’ out honey. Does good work on the thorny bastards in the ring too.
+    <t xml:space="preserve">[name="Leto"]  It's just throwing your fists around a bit. What's to learn?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  It's a trick I use against those 'bugs' when I'm diggin' out honey. Does good work on the thorny bastards in the ring too.
 </t>
   </si>
   <si>
@@ -3896,7 +3896,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  If you really wanna learn, head outside and dig out some honey. You’ll get it quick.
+    <t xml:space="preserve">[name="Beehunter"]  If you really wanna learn, head outside and dig out some honey. You'll get it quick.
 </t>
   </si>
   <si>
@@ -3908,27 +3908,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  You’re the Beehunter.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  The Beehunter’s an Ursus who fights for her life. But if we’re talkin’ about the future? My money’s on little Leto.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  Hehe, now that’s what I like to hear.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  Okay, break’s over, come fight me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  ‘course, if you’d rather take a beating, we can do that too. I’m okay spendin’ the rest of our training room time makin’ you my punching bag.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  Just you wait, Shura. I’m gonna get you this time!
+    <t xml:space="preserve">[name="Leto"]  You're the Beehunter.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  The Beehunter's an Ursus who fights for her life. But if we're talkin' about the future? My money's on little Leto.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  Hehe, now that's what I like to hear.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  Okay, break's over, come fight me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  'course, if you'd rather take a beating, we can do that too. I'm okay spendin' the rest of our training room time makin' you my punching bag.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  Just you wait, Shura. I'm gonna get you this time!
 </t>
   </si>
   <si>
@@ -3936,19 +3936,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  If you can’t hit me with your fists, why not get a weapon?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  C’mon, I have my pride, Shura.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  Although, the training room weapons all have safety features. Getting hit with ‘em just hurts a bit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  You grab one too. We’ll spar.
+    <t xml:space="preserve">[name="Beehunter"]  If you can't hit me with your fists, why not get a weapon?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  C'mon, I have my pride, Shura.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  Although, the training room weapons all have safety features. Getting hit with 'em just hurts a bit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  You grab one too. We'll spar.
 </t>
   </si>
   <si>
@@ -3968,7 +3968,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  There’s two ways to deal with somebody using a polearm, you know?
+    <t xml:space="preserve">[name="Beehunter"]  There's two ways to deal with somebody using a polearm, you know?
 </t>
   </si>
   <si>
@@ -3980,11 +3980,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  Runnin’ outta time. Okay, let’s go!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  C’mon!
+    <t xml:space="preserve">[name="Beehunter"]  Runnin' outta time. Okay, let's go!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  C'mon!
 </t>
   </si>
   <si>
@@ -4000,19 +4000,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  Gulp gulp, aaahhh——that’s sweet.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  Don’t chug so much water right after training. You’ll get midnight cramps.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  That’s Future Leto’s problem. Right now it feels amazing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  How ‘bout it? You learn something today?
+    <t xml:space="preserve">[name="Leto"]  Gulp gulp, aaahhh——that's sweet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  Don't chug so much water right after training. You'll get midnight cramps.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  That's Future Leto's problem. Right now it feels amazing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  How 'bout it? You learn something today?
 </t>
   </si>
   <si>
@@ -4036,7 +4036,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  But I couldn’t block you at all, Shura.
+    <t xml:space="preserve">[name="Leto"]  But I couldn't block you at all, Shura.
 </t>
   </si>
   <si>
@@ -4044,15 +4044,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  I fought a lot, I didn’t die. Ta-dah.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  Take enough beatings and you’ll learn how somebody’s gonna wanna come at you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  And if you don’t, you get dumpstered pretty quick.
+    <t xml:space="preserve">[name="Beehunter"]  I fought a lot, I didn't die. Ta-dah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  Take enough beatings and you'll learn how somebody's gonna wanna come at you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  And if you don't, you get dumpstered pretty quick.
 </t>
   </si>
   <si>
@@ -4060,19 +4060,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  You’ve got me and your sisters lookin’ out for you. You ever end up in a dumpster, we’ll come fish you out.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  You say that like I’m garbage.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  Hahaha. Don’t sweat it, Leto. You’re still a kid. Get some experience under your belt and you’ll be a lot stronger. No question.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  Don’t patronize me! I even——!
+    <t xml:space="preserve">[name="Beehunter"]  You've got me and your sisters lookin' out for you. You ever end up in a dumpster, we'll come fish you out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  You say that like I'm garbage.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  Hahaha. Don't sweat it, Leto. You're still a kid. Get some experience under your belt and you'll be a lot stronger. No question.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  Don't patronize me! I even——!
 </t>
   </si>
   <si>
@@ -4084,7 +4084,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  (Quietly) Why haven’t I heard this before? You’re not makin’ it up, are ya?
+    <t xml:space="preserve">[name="Beehunter"]  (Quietly) Why haven't I heard this before? You're not makin' it up, are ya?
 </t>
   </si>
   <si>
@@ -4092,7 +4092,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  How about this? Let’s go wash up, get something to eat, make ourselves comfortable, and I’ll tell you the whole story.
+    <t xml:space="preserve">[name="Leto"]  How about this? Let's go wash up, get something to eat, make ourselves comfortable, and I'll tell you the whole story.
 </t>
   </si>
   <si>
@@ -4100,7 +4100,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  And Dur-nar, I hear she did up some wild snacks the other day. Word on the street is she’ll sell you some if you give her the password.
+    <t xml:space="preserve">[name="Beehunter"]  And Dur-nar, I hear she did up some wild snacks the other day. Word on the street is she'll sell you some if you give her the password.
 </t>
   </si>
   <si>
@@ -4116,7 +4116,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  What’s up?
+    <t xml:space="preserve">[name="Beehunter"]  What's up?
 </t>
   </si>
   <si>
@@ -4124,15 +4124,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  (Quietly) What’s the password? It was always Gummy and Her Worship who did stuff like this. I dunno how.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  Oh, come here, I’ll tell ya.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  (Quietly) Listen up. I’m only gonna say it once. Don’t ask questions.
+    <t xml:space="preserve">[name="Leto"]  (Quietly) What's the password? It was always Gummy and Her Worship who did stuff like this. I dunno how.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  Oh, come here, I'll tell ya.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  (Quietly) Listen up. I'm only gonna say it once. Don't ask questions.
 </t>
   </si>
   <si>
@@ -4140,7 +4140,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  (Quietly) Dur-nar’s Snack Network covers all of Rhodes Island. But for security, you can only get access by invitation from somebody the network trusts. I usually work through Haze. She’s hella discreet.
+    <t xml:space="preserve">[name="Beehunter"]  (Quietly) Dur-nar's Snack Network covers all of Rhodes Island. But for security, you can only get access by invitation from somebody the network trusts. I usually work through Haze. She's hella discreet.
 </t>
   </si>
   <si>
@@ -4148,11 +4148,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  (Quietly) Then you make conversation when they open the door. When they say the word 'glockenspiel,' you gotta immediately reply, 'this one’s pretty good.' Then you’ll get the price and you’re golden.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  (Quietly) Don’t forget: 'Glockennnspiel,' long in the middle, short at the end.
+    <t xml:space="preserve">[name="Beehunter"]  (Quietly) Then you make conversation when they open the door. When they say the word 'glockenspiel,' you gotta immediately reply, 'this one's pretty good.' Then you'll get the price and you're golden.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  (Quietly) Don't forget: 'Glockennnspiel,' long in the middle, short at the end.
 </t>
   </si>
   <si>
@@ -4176,7 +4176,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  That’s a pain in the ass. I’ll just get Gummy to do it.
+    <t xml:space="preserve">[name="Leto"]  That's a pain in the ass. I'll just get Gummy to do it.
 </t>
   </si>
   <si>
@@ -4188,7 +4188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Leto and Beehunter’s Room
+    <t xml:space="preserve">Leto and Beehunter's Room
 </t>
   </si>
   <si>
@@ -4196,11 +4196,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  I got bored waiting for you. But I bought lots. Why can’t I do a little pregaming?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  Yeah all right. I actually nibbled on the snacks a bit on my way back. They’re good.
+    <t xml:space="preserve">[name="Beehunter"]  I got bored waiting for you. But I bought lots. Why can't I do a little pregaming?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  Yeah all right. I actually nibbled on the snacks a bit on my way back. They're good.
 </t>
   </si>
   <si>
@@ -4208,7 +4208,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  C’mon, let’s eat, play a hand or two to warm up, and then you tell us about your big adventure.
+    <t xml:space="preserve">[name="Beehunter"]  C'mon, let's eat, play a hand or two to warm up, and then you tell us about your big adventure.
 </t>
   </si>
   <si>
@@ -4256,7 +4256,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  Push? Okay, let’s go again.
+    <t xml:space="preserve">[name="Beehunter"]  Push? Okay, let's go again.
 </t>
   </si>
   <si>
@@ -4284,7 +4284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  I’m done!
+    <t xml:space="preserve">[name="Beehunter"]  I'm done!
 </t>
   </si>
   <si>
@@ -4292,7 +4292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  What’s goin’ on today?
+    <t xml:space="preserve">[name="Beehunter"]  What's goin' on today?
 </t>
   </si>
   <si>
@@ -4324,7 +4324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  We’re only three or four cans in, and this is non-alcoholic.
+    <t xml:space="preserve">[name="Beehunter"]  We're only three or four cans in, and this is non-alcoholic.
 </t>
   </si>
   <si>
@@ -4336,7 +4336,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  Yeah! And it’s hittin’ you a lot harder than it hits me.
+    <t xml:space="preserve">[name="Beehunter"]  Yeah! And it's hittin' you a lot harder than it hits me.
 </t>
   </si>
   <si>
@@ -4348,7 +4348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  What’re you talking about? The great and mighty Leto would never get *hic* drunk!
+    <t xml:space="preserve">[name="Leto"]  What're you talking about? The great and mighty Leto would never get *hic* drunk!
 </t>
   </si>
   <si>
@@ -4356,7 +4356,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  What are you laughing at? If we’re done with the cards then get over here and listen to the story of Leto the Great.
+    <t xml:space="preserve">[name="Leto"]  What are you laughing at? If we're done with the cards then get over here and listen to the story of Leto the Great.
 </t>
   </si>
   <si>
@@ -4372,11 +4372,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  Right, let’s start from the beginning!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  I’m havin’ way too much fun today. I gotta record this.
+    <t xml:space="preserve">[name="Leto"]  Right, let's start from the beginning!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  I'm havin' way too much fun today. I gotta record this.
 </t>
   </si>
   <si>
@@ -4396,7 +4396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  Me. Gummy said you sent her to get snacks. I’m here for my cut.
+    <t xml:space="preserve">[name="Zima"]  Me. Gummy said you sent her to get snacks. I'm here for my cut.
 </t>
   </si>
   <si>
@@ -4428,23 +4428,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  Oh, honey? N- no. Don’t be silly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Zima"]  Where’s Beehunter?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  She’s, uh, not here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  Oh Mighty Leto——I’ve brought your refreshments.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  Hey, Zima, how ya doin’?
+    <t xml:space="preserve">[name="Leto"]  Oh, honey? N- no. Don't be silly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Zima"]  Where's Beehunter?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  She's, uh, not here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  Oh Mighty Leto——I've brought your refreshments.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  Hey, Zima, how ya doin'?
 </t>
   </si>
   <si>
@@ -4460,15 +4460,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  What’s up with her?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  Her? Oh, she’s honey drunk.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Beehunter"]  And it’s hittin’ her way harder than it ever does me. She’s supposed to be telling me some story about her adventures before.
+    <t xml:space="preserve">[name="Zima"]  What's up with her?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  Her? Oh, she's honey drunk.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Beehunter"]  And it's hittin' her way harder than it ever does me. She's supposed to be telling me some story about her adventures before.
 </t>
   </si>
   <si>
@@ -4492,7 +4492,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Zima"]  I’m out. Have a good time, Leto.
+    <t xml:space="preserve">[name="Zima"]  I'm out. Have a good time, Leto.
 </t>
   </si>
   <si>
@@ -4508,7 +4508,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  C’mon, Leto. Stop standin’ in the door makin’ a fool of yourself.
+    <t xml:space="preserve">[name="Beehunter"]  C'mon, Leto. Stop standin' in the door makin' a fool of yourself.
 </t>
   </si>
   <si>
@@ -4532,15 +4532,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  What’s up, Mousse?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mousse"]  Um, well, I’m sorry to bother you so late. But, if it wouldn’t be too much trouble, do you think you could have your conversation inside your room?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  That’s exactly what I wanna doooooo.
+    <t xml:space="preserve">[name="Beehunter"]  What's up, Mousse?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mousse"]  Um, well, I'm sorry to bother you so late. But, if it wouldn't be too much trouble, do you think you could have your conversation inside your room?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  That's exactly what I wanna doooooo.
 </t>
   </si>
   <si>
@@ -4548,7 +4548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mousse"]  I’m the one who’s sorry!
+    <t xml:space="preserve">[name="Mousse"]  I'm the one who's sorry!
 </t>
   </si>
   <si>
@@ -4560,7 +4560,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  Phew, you’re drunker than drunk.
+    <t xml:space="preserve">[name="Beehunter"]  Phew, you're drunker than drunk.
 </t>
   </si>
   <si>
@@ -4592,7 +4592,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  Let’s hear the story.
+    <t xml:space="preserve">[name="Beehunter"]  Let's hear the story.
 </t>
   </si>
   <si>
@@ -4600,7 +4600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  Hadn’t even started.
+    <t xml:space="preserve">[name="Beehunter"]  Hadn't even started.
 </t>
   </si>
   <si>
@@ -4628,7 +4628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  If only that gang of nobles hadn’t taken apart the vending machine.
+    <t xml:space="preserve">[name="Rosalind"]  If only that gang of nobles hadn't taken apart the vending machine.
 </t>
   </si>
   <si>
@@ -4648,19 +4648,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  The masked dudes just pushed ‘em back in. Tsk.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Student A"]  Hey, aren’t you Rosalind from class 3?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  Yeah, that’s me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Student B"]  We’re from the Peterheim Benevolent Society. Our boss, Big Andrey, wants you to join us.
+    <t xml:space="preserve">[name="Rosalind"]  The masked dudes just pushed 'em back in. Tsk.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Student A"]  Hey, aren't you Rosalind from class 3?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  Yeah, that's me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Student B"]  We're from the Peterheim Benevolent Society. Our boss, Big Andrey, wants you to join us.
 </t>
   </si>
   <si>
@@ -4680,19 +4680,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  I don’t even get why we have so many little groups. And they all have such big, tough names.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Student B"]  Huh? What’s that supposed to mean...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Student A"]  Woah, don’t provoke her.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Student A"]  Rosalind, there’s kids from a whole bunch of different schools here now. Even a bunch from a noble school got sent to ours.
+    <t xml:space="preserve">[name="Rosalind"]  I don't even get why we have so many little groups. And they all have such big, tough names.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Student B"]  Huh? What's that supposed to mean...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Student A"]  Woah, don't provoke her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Student A"]  Rosalind, there's kids from a whole bunch of different schools here now. Even a bunch from a noble school got sent to ours.
 </t>
   </si>
   <si>
@@ -4700,15 +4700,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Student A"]  Isn’t it time for us all to band together?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Student A"]  Andrey says as long as you come along, he’ll treat you right.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Student A"]  You’ll have food, drinks, anything leftover can go to you too.
+    <t xml:space="preserve">[name="Student A"]  Isn't it time for us all to band together?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Student A"]  Andrey says as long as you come along, he'll treat you right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Student A"]  You'll have food, drinks, anything leftover can go to you too.
 </t>
   </si>
   <si>
@@ -4732,7 +4732,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  Hold on a sec. Don’t get too excited.
+    <t xml:space="preserve">[name="Rosalind"]  Hold on a sec. Don't get too excited.
 </t>
   </si>
   <si>
@@ -4752,7 +4752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  That’s all you gotta do, and I’ll wear your armband.
+    <t xml:space="preserve">[name="Rosalind"]  That's all you gotta do, and I'll wear your armband.
 </t>
   </si>
   <si>
@@ -4784,7 +4784,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  There’s no more?
+    <t xml:space="preserve">[name="Rosalind"]  There's no more?
 </t>
   </si>
   <si>
@@ -4796,7 +4796,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Noble Student"]  You’re Rosalind.
+    <t xml:space="preserve">[name="Noble Student"]  You're Rosalind.
 </t>
   </si>
   <si>
@@ -4808,7 +4808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  Oh, we’re fighting?
+    <t xml:space="preserve">[name="Rosalind"]  Oh, we're fighting?
 </t>
   </si>
   <si>
@@ -4832,7 +4832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  So that means it wasn’t just kids from your school in there already?
+    <t xml:space="preserve">[name="Beehunter"]  So that means it wasn't just kids from your school in there already?
 </t>
   </si>
   <si>
@@ -4840,7 +4840,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  Including the gopniks from Her Worship’s school.
+    <t xml:space="preserve">[name="Leto"]  Including the gopniks from Her Worship's school.
 </t>
   </si>
   <si>
@@ -4848,7 +4848,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  Oh, that’s Natalya. One of the Ursus girls with us.
+    <t xml:space="preserve">[name="Leto"]  Oh, that's Natalya. One of the Ursus girls with us.
 </t>
   </si>
   <si>
@@ -4856,7 +4856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  She’s not a bad girl. But back then she was into some real messed up shit.
+    <t xml:space="preserve">[name="Leto"]  She's not a bad girl. But back then she was into some real messed up shit.
 </t>
   </si>
   <si>
@@ -4892,7 +4892,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Student"]  D- don’t kill me!
+    <t xml:space="preserve">[name="Student"]  D- don't kill me!
 </t>
   </si>
   <si>
@@ -4916,23 +4916,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  I don’t have any food here either. Why are they always coming at me?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  They’re all gopniks from our school.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  None of these punks have armbands. How am I supposed to know if they’re with Andrey or Vasily?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  I’ll take a few bits, just to fill my stomach.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  I can’t keep going like this. They bug me every night.
+    <t xml:space="preserve">[name="Rosalind"]  I don't have any food here either. Why are they always coming at me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  They're all gopniks from our school.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  None of these punks have armbands. How am I supposed to know if they're with Andrey or Vasily?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  I'll take a few bits, just to fill my stomach.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  I can't keep going like this. They bug me every night.
 </t>
   </si>
   <si>
@@ -4940,7 +4940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  Drinks are gonna be the least of my problems if this keeps up. I won’t have food or water.
+    <t xml:space="preserve">[name="Rosalind"]  Drinks are gonna be the least of my problems if this keeps up. I won't have food or water.
 </t>
   </si>
   <si>
@@ -4952,19 +4952,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  She’s already got a couple kids over there, right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  She won’t mind taking one more.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  Yeah, that’s it. That could work.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  I offer up a few cans and she’ll let me right in.
+    <t xml:space="preserve">[name="Rosalind"]  She's already got a couple kids over there, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  She won't mind taking one more.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  Yeah, that's it. That could work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  I offer up a few cans and she'll let me right in.
 </t>
   </si>
   <si>
@@ -4972,7 +4972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  That’ll be a little more 'stable' at least.
+    <t xml:space="preserve">[name="Rosalind"]  That'll be a little more 'stable' at least.
 </t>
   </si>
   <si>
@@ -4980,11 +4980,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  Never would’ve thought the the world’s second strongest would have to go beg first place for help.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  But I’d be able to get a good night’s sleep over there...
+    <t xml:space="preserve">[name="Rosalind"]  Never would've thought the the world's second strongest would have to go beg first place for help.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  But I'd be able to get a good night's sleep over there...
 </t>
   </si>
   <si>
@@ -4996,7 +4996,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  It’s me...
+    <t xml:space="preserve">[name="Rosalind"]  It's me...
 </t>
   </si>
   <si>
@@ -5016,7 +5016,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  Err, really, I’m coming in.
+    <t xml:space="preserve">[name="Rosalind"]  Err, really, I'm coming in.
 </t>
   </si>
   <si>
@@ -5024,7 +5024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  I, uh, didn’t mean... I just wanted to, err, I want to join you.
+    <t xml:space="preserve">[name="Rosalind"]  I, uh, didn't mean... I just wanted to, err, I want to join you.
 </t>
   </si>
   <si>
@@ -5036,15 +5036,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  Hey, you didn’t really...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sonya"]  I have to guard this place. I’m protecting them. I can’t leave.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sonya"]  I’ll owe you.
+    <t xml:space="preserve">[name="Rosalind"]  Hey, you didn't really...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sonya"]  I have to guard this place. I'm protecting them. I can't leave.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sonya"]  I'll owe you.
 </t>
   </si>
   <si>
@@ -5052,15 +5052,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  Okay. You’re the boss.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  I brought you a few cans. They’re yours.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  And I’ll deal with... them.
+    <t xml:space="preserve">[name="Rosalind"]  Okay. You're the boss.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  I brought you a few cans. They're yours.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  And I'll deal with... them.
 </t>
   </si>
   <si>
@@ -5068,7 +5068,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  You’ve changed.
+    <t xml:space="preserve">[name="Rosalind"]  You've changed.
 </t>
   </si>
   <si>
@@ -5088,7 +5088,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  You’re pretty fun yourself.
+    <t xml:space="preserve">[name="Beehunter"]  You're pretty fun yourself.
 </t>
   </si>
   <si>
@@ -5096,7 +5096,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  What?! I’ve still got a story to tell.
+    <t xml:space="preserve">[name="Leto"]  What?! I've still got a story to tell.
 </t>
   </si>
   <si>
@@ -5108,7 +5108,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  Fire? What fire? Where’s the fire?
+    <t xml:space="preserve">[name="Beehunter"]  Fire? What fire? Where's the fire?
 </t>
   </si>
   <si>
@@ -5136,7 +5136,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  Woah, don’t throw her! I can’t catch like this!
+    <t xml:space="preserve">[name="Leto"]  Woah, don't throw her! I can't catch like this!
 </t>
   </si>
   <si>
@@ -5152,7 +5152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  Get up, Andrey. Where’d all your big talk go?!
+    <t xml:space="preserve">[name="Rosalind"]  Get up, Andrey. Where'd all your big talk go?!
 </t>
   </si>
   <si>
@@ -5164,7 +5164,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  Well, at least you won’t be hungry.
+    <t xml:space="preserve">[name="Rosalind"]  Well, at least you won't be hungry.
 </t>
   </si>
   <si>
@@ -5172,7 +5172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  Okay, that’s the boss down. Anybody else...?
+    <t xml:space="preserve">[name="Rosalind"]  Okay, that's the boss down. Anybody else...?
 </t>
   </si>
   <si>
@@ -5188,7 +5188,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  You think I’m that easy?
+    <t xml:space="preserve">[name="Rosalind"]  You think I'm that easy?
 </t>
   </si>
   <si>
@@ -5236,15 +5236,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  Naw, we’re a team. It’s what I’m here for.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  And look, she isn’t in great shape right now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  So it’s up to me, as Peterheim’s second strongest, toAAAAAAaaaaghh that hurts!
+    <t xml:space="preserve">[name="Rosalind"]  Naw, we're a team. It's what I'm here for.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  And look, she isn't in great shape right now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  So it's up to me, as Peterheim's second strongest, toAAAAAAaaaaghh that hurts!
 </t>
   </si>
   <si>
@@ -5268,15 +5268,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  The world’s running out of good people. Lucky to have you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  Really. You’re great.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  If that cop had run into kids like you, things would’ve turned out different.
+    <t xml:space="preserve">[name="Rosalind"]  The world's running out of good people. Lucky to have you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  Really. You're great.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  If that cop had run into kids like you, things would've turned out different.
 </t>
   </si>
   <si>
@@ -5288,11 +5288,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  (We can’t keep this up.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  (We don’t have enough food. Don’t have enough people.)
+    <t xml:space="preserve">[name="Rosalind"]  (We can't keep this up.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  (We don't have enough food. Don't have enough people.)
 </t>
   </si>
   <si>
@@ -5300,7 +5300,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  (Both the food stores are gone. There’s just not enough to eat.)
+    <t xml:space="preserve">[name="Rosalind"]  (Both the food stores are gone. There's just not enough to eat.)
 </t>
   </si>
   <si>
@@ -5340,23 +5340,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  We don’t have much left in the way of rations. I’m gonna go out for more tonight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Anna"]  You can’t. You’re hurt. If you go out again you’ll——
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  I’m tough. I can handle it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  I won’t go far. And I won’t take anyone’s last bite.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  Don’t worry.
+    <t xml:space="preserve">[name="Rosalind"]  We don't have much left in the way of rations. I'm gonna go out for more tonight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Anna"]  You can't. You're hurt. If you go out again you'll——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  I'm tough. I can handle it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  I won't go far. And I won't take anyone's last bite.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  Don't worry.
 </t>
   </si>
   <si>
@@ -5364,11 +5364,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  It’s been so long since I’ve come here. I’m kind of excited.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My heart’s really pounding.
+    <t xml:space="preserve">[name="Rosalind"]  It's been so long since I've come here. I'm kind of excited.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My heart's really pounding.
 </t>
   </si>
   <si>
@@ -5376,7 +5376,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  This is my old dorm. Why can’t I go in?
+    <t xml:space="preserve">[name="Rosalind"]  This is my old dorm. Why can't I go in?
 </t>
   </si>
   <si>
@@ -5384,15 +5384,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosalind"]  If I was afraid to die, I’d try to find a way out of the school. No reason to come here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosalind"]  I’m Rosalind, and I wanna talk to your leader.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Reunion Member"]  Only if you’re Infected.
+    <t xml:space="preserve">[name="Rosalind"]  If I was afraid to die, I'd try to find a way out of the school. No reason to come here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosalind"]  I'm Rosalind, and I wanna talk to your leader.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"]  Only if you're Infected.
 </t>
   </si>
   <si>
@@ -5404,11 +5404,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I’m scared. Scared to death. But my mouth is still going.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I feel like I’m staring into the mouth of hell for the sake of my own pride.
+    <t xml:space="preserve">I'm scared. Scared to death. But my mouth is still going.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I feel like I'm staring into the mouth of hell for the sake of my own pride.
 </t>
   </si>
   <si>
@@ -5444,7 +5444,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Was it because I’d say a few words to him and he’d let us all go, or give us food?
+    <t xml:space="preserve">Was it because I'd say a few words to him and he'd let us all go, or give us food?
 </t>
   </si>
   <si>
@@ -5476,7 +5476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  I can’t remember too well.
+    <t xml:space="preserve">[name="Leto"]  I can't remember too well.
 </t>
   </si>
   <si>
@@ -5496,7 +5496,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  Things didn’t get better after that.
+    <t xml:space="preserve">[name="Leto"]  Things didn't get better after that.
 </t>
   </si>
   <si>
@@ -5508,7 +5508,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  Those stories, they’ll eat you alive.
+    <t xml:space="preserve">[name="Leto"]  Those stories, they'll eat you alive.
 </t>
   </si>
   <si>
@@ -5520,11 +5520,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  And here you said, you said I was honey drunk. You’re the drunk one!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  Cam’t benieve it. You just fall ashleep without saying anything.
+    <t xml:space="preserve">[name="Leto"]  And here you said, you said I was honey drunk. You're the drunk one!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  Cam't benieve it. You just fall ashleep without saying anything.
 </t>
   </si>
   <si>
@@ -5532,7 +5532,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  Where’s the stage?
+    <t xml:space="preserve">[name="Leto"]  Where's the stage?
 </t>
   </si>
   <si>
@@ -5540,11 +5540,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  Aah, here’s my stage.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  Beehunter’s asleep, so you get to hear the rest of my story.
+    <t xml:space="preserve">[name="Leto"]  Aah, here's my stage.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  Beehunter's asleep, so you get to hear the rest of my story.
 </t>
   </si>
   <si>
@@ -5588,7 +5588,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  You’re gonna ask me what happened?
+    <t xml:space="preserve">[name="Beehunter"]  You're gonna ask me what happened?
 </t>
   </si>
   <si>
@@ -5600,7 +5600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  You didn’t toss her to me?
+    <t xml:space="preserve">[name="Leto"]  You didn't toss her to me?
 </t>
   </si>
   <si>
@@ -5608,7 +5608,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  Don’t have to.
+    <t xml:space="preserve">[name="Leto"]  Don't have to.
 </t>
   </si>
   <si>
@@ -5624,7 +5624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  I’m gonna take out the garbage. You get cleaning.
+    <t xml:space="preserve">[name="Beehunter"]  I'm gonna take out the garbage. You get cleaning.
 </t>
   </si>
   <si>
@@ -5632,11 +5632,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Beehunter"]  I’m out. Don’t forget afternoon class!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Leto"]  I won’t!
+    <t xml:space="preserve">[name="Beehunter"]  I'm out. Don't forget afternoon class!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Leto"]  I won't!
 </t>
   </si>
   <si>
@@ -5648,7 +5648,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  That’s why I woke up so refreshed today.
+    <t xml:space="preserve">[name="Leto"]  That's why I woke up so refreshed today.
 </t>
   </si>
   <si>
@@ -5660,7 +5660,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Leto"]  I’ll see about drinking with Beehunter again in a couple days.
+    <t xml:space="preserve">[name="Leto"]  I'll see about drinking with Beehunter again in a couple days.
 </t>
   </si>
   <si>
